--- a/biology/Zoologie/Charançon/Charançon.xlsx
+++ b/biology/Zoologie/Charançon/Charançon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charan%C3%A7on</t>
+          <t>Charançon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Charançon » et « balanin » sont deux noms vernaculaires donnés à plusieurs espèces d'insectes ravageurs. Ils appartiennent tous à l'ordre des coléoptères, et se répartissent principalement entre les familles Curculionidae et Dryophthoridae, de la super-famille des Curculionoidea. Parmi les insectes phytophages, les charançons constituent un des clades les plus diversifiés de coléoptères avec près de 50 000 espèces et 4 300 genres décrits[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Charançon » et « balanin » sont deux noms vernaculaires donnés à plusieurs espèces d'insectes ravageurs. Ils appartiennent tous à l'ordre des coléoptères, et se répartissent principalement entre les familles Curculionidae et Dryophthoridae, de la super-famille des Curculionoidea. Parmi les insectes phytophages, les charançons constituent un des clades les plus diversifiés de coléoptères avec près de 50 000 espèces et 4 300 genres décrits,.
 Ces termes désignent aussi parfois de façon générique d'autres insectes de la famille Curculionidae comme les otiorhynques ou les orchestes — ou de la même super-famille comme les rhynchites, cigariers, bruches, apions ou hylobes.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charan%C3%A7on</t>
+          <t>Charançon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme charançon est d'origine controversée. L'étymon préférable semble être un gaulois °karantionos, dérivé par double suffixation (-nt- et -n-) du radical gaulois *ker-, *kar- désignant le cerf (cf. cerf-volant et l'expression « le cornu » désignant un coléoptère)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme charançon est d'origine controversée. L'étymon préférable semble être un gaulois °karantionos, dérivé par double suffixation (-nt- et -n-) du radical gaulois *ker-, *kar- désignant le cerf (cf. cerf-volant et l'expression « le cornu » désignant un coléoptère).
 Pour l'étymologie du terme balanin, voir la page Balanin (homonymie).
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Charan%C3%A7on</t>
+          <t>Charançon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Physiologie, comportement et écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les caractéristiques générales des charançons sont celles des Curculionoidea, avec des nuances pour chaque espèce : voir les articles détaillés pour plus d'informations sur leur description ou leur mode de vie.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Charan%C3%A7on</t>
+          <t>Charançon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,87 +591,89 @@
           <t>Noms français et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le terme « Charançon » étant ambigu, se référer à la liste plus exhaustive des ravageurs de plantes cultivées ou des Curculionidae, des Dryophthoridae, des Bruchinae pour les bruches, des Rhynchitidae pour les rhynchites et cigariers, Apionidae pour les apions.
-Liste alphabétique de noms vulgaires ou de noms vernaculaires attestés[4] en français. 
+Liste alphabétique de noms vulgaires ou de noms vernaculaires attestés en français. 
 Note : certaines espèces ont plusieurs noms et figurent donc plusieurs fois dans cette liste. Les classifications évoluant encore, certains noms scientifiques ont peut-être un autre synonyme valide.
-Anthonome du fraisier et du framboisier[5] - Anthonomus rubi Hbst
-Charançons - Curculionidae en général[6]
-Charançon à deux bandes transverses - Araecerus fasciculatus[7]
-Charançon à étuis fauves - Phyllobius oblongus[7]
-Charançon à deux points blancs - Ellescus bipunctatus[7]
-Charançon à écailles vertes - Rhynchites auratus[7]
-Charançon à rostre noir - Hypera nigrirostris[8]
-Charançon à stries rugueuses - Otiorhynchus rugosostriatus[8]
-Charançon à trompe sillonnée - Coniocleonus nebulosus[7]
-Charançon acicole du pin blanc - Pachyrinus elegans[8]
+Anthonome du fraisier et du framboisier - Anthonomus rubi Hbst
+Charançons - Curculionidae en général
+Charançon à deux bandes transverses - Araecerus fasciculatus
+Charançon à étuis fauves - Phyllobius oblongus
+Charançon à deux points blancs - Ellescus bipunctatus
+Charançon à écailles vertes - Rhynchites auratus
+Charançon à rostre noir - Hypera nigrirostris
+Charançon à stries rugueuses - Otiorhynchus rugosostriatus
+Charançon à trompe sillonnée - Coniocleonus nebulosus
+Charançon acicole du pin blanc - Pachyrinus elegans
 Charançon américain du prunier - Conotrachelus nenuphar
 Charançon andin de la pomme de terre - genres Premnotrypes, Phyrdenus et Rhigopsidius
-Charançon aquatique du riz - Lissorhoptrus oryzophilus[7]
+Charançon aquatique du riz - Lissorhoptrus oryzophilus
 Charançon argentin des tiges - Listronotus bonariensis
-Charançon barbu - Rhinostomus barbirostris[9]
-Charançon bicolore du rosier - Rhynchites bicolor[9],[8]
-Charançon bleu du navet - Ceutorhynchus americanus[9],[8]
-Charançon de l'agave (noir) - Scyphophorus acupunctatus[9]
-Charançon de l'armoise - Omias saccatus[9],[7]
+Charançon barbu - Rhinostomus barbirostris
+Charançon bicolore du rosier - Rhynchites bicolor,
+Charançon bleu du navet - Ceutorhynchus americanus,
+Charançon de l'agave (noir) - Scyphophorus acupunctatus
+Charançon de l'armoise - Omias saccatus,
 Charançon de l'ortie - Phyllobius pomaceus
-Charançon de la betterave - Temnorhinus mendicus[8]
-Charançon de la capsule du cotonnier - Anthonomus grandis[8]
-Charançon de la carotte - Listronotus oregonensis[9],[8]
-Charançon de la fleur du pommier ou Anthonome du pommier - Anthonomus pomorum[8]
-Charançon de la godétie - Tyloderma nigra[8]
-Charançon de la graine du chou - Ceutorhynchus assimilis[8]
-Charançon de la graine du trèfle rouge - Tychius stephensi ou Miccotroyus stephensi[8],[10]
-Charançon de la graine du trèfle - Tychius picirostris ou Miccotroyus picirostris[8]
-Charançon de la luzerne - Otiorhynchus ligustici[8]
-Charançon de la patate douce - Cylas formicarius[6],[8] entre autres, cf. article détaillé
-Charançon de la pomme de terre - Trichobaris trinotata[8]
-Charançon de la pomme - Tachypterellus quadrigibbus[8]
+Charançon de la betterave - Temnorhinus mendicus
+Charançon de la capsule du cotonnier - Anthonomus grandis
+Charançon de la carotte - Listronotus oregonensis,
+Charançon de la fleur du pommier ou Anthonome du pommier - Anthonomus pomorum
+Charançon de la godétie - Tyloderma nigra
+Charançon de la graine du chou - Ceutorhynchus assimilis
+Charançon de la graine du trèfle rouge - Tychius stephensi ou Miccotroyus stephensi,
+Charançon de la graine du trèfle - Tychius picirostris ou Miccotroyus picirostris
+Charançon de la luzerne - Otiorhynchus ligustici
+Charançon de la patate douce - Cylas formicarius, entre autres, cf. article détaillé
+Charançon de la pomme de terre - Trichobaris trinotata
+Charançon de la pomme - Tachypterellus quadrigibbus
 Charançon de la tige du chou - Ceutorhynchus quadridens
 Charançon de la tige du colza - Ceuthorhynchus napi
 Charançon des agrumes
-Charançon des chatons du bouleau - Apion simile[9]
+Charançon des chatons du bouleau - Apion simile
 Charançon des feuilles du trèfle ou bruche du trèfle - Hypera zoilus
-Charançon des lavatères - Malvaevora timida[7]
+Charançon des lavatères - Malvaevora timida
 Charançon des noisettes - Curculio nucum
-Charançon des pétasites - Liparus glabrirostris[7]
+Charançon des pétasites - Liparus glabrirostris
 Charançon des siliques du colza - Ceutorhynchus assimilis
-Charançon du chardon penché - Rhinocyllus conicus[7]
-Charançon du laser - Liparus dirus[7]
-Charançon du rosier - Naupactus cervinus[7]
-Charançon du tamaris - Coniatus tamarisci[7]
+Charançon du chardon penché - Rhinocyllus conicus
+Charançon du laser - Liparus dirus
+Charançon du rosier - Naupactus cervinus
+Charançon du tamaris - Coniatus tamarisci
 Charançon du bananier - Cosmopolites sordidus
-Charançon du blé - Sitophilus granarius[6]
+Charançon du blé - Sitophilus granarius
 Charançon du bourgeon terminal - Ceutorhynchus picitarsis
-Charançon du cenellier - Conotrachelus crataegi[9]
-Charançon du châtaignier - Pissodes castaneus[6] et Pissodes notatus[6]
+Charançon du cenellier - Conotrachelus crataegi
+Charançon du châtaignier - Pissodes castaneus et Pissodes notatus
 Charançon du chêne - Curculio glandium
 Charançon du coton - Anthonomus grandis
-Charançon du hêtre - Orchestes fagi[6]
+Charançon du hêtre - Orchestes fagi
 Charançon du noyau de la mangue - Sternochetus mangiferae
 Charançon du pin blanc - Pissodes strobi
 Charançon du pois ou Bruche du pois - Bruchus pisorum
 Charançon du riz - Sitophilus oryzae
-Charançon gallicole du chou - Ceutorhynchus pleurostigma[6]
-Charançon gris de la scrophulaire - Cionus hortulanus[7]
-Charançon gris à étuis réunis &amp; chagrinés - Otiorhynchus ligustici[7]
-Charançon gris, strié &amp; sans ailés - Brachyderes incanus[7]
-Charançon noir chagriné - Anisorhynchus scabrosus[7]
-Charançon noir à bande transversale blanche - Nanophyes marmoratus marmoratus[7]
-Charançon noir à corselet armé - Magdalis armigera[7]
-Charançon palmiste - Rhynchophorus ferrugineus[6]
-Charançon pyriforme - Notaris acridulus[7]
-Charançon rayé du pois - Sitona lineatus[6]
-Charançon rouge des palmiers - Rhynchophorus ferrugineus[6]
-Charançon satin-vert - Chlorophanus viridis viridis[7]
-Charançon sauteur brun - Orchestes alni[7]
-Charançon tacheté des têtes de chardon - Larinus iaceae[7]
-Charançon vert pâle - Polydrusus impressifrons[7]
-Charançon vert soyeux - Polydrusus formosus[7]
-Grand charançon du pin - Hylobius abietis[6]
-Grand-charançon du Chardon - Cleonis pigra[7]
-Petit charançon des pins - Pissodes pini[6]
+Charançon gallicole du chou - Ceutorhynchus pleurostigma
+Charançon gris de la scrophulaire - Cionus hortulanus
+Charançon gris à étuis réunis &amp; chagrinés - Otiorhynchus ligustici
+Charançon gris, strié &amp; sans ailés - Brachyderes incanus
+Charançon noir chagriné - Anisorhynchus scabrosus
+Charançon noir à bande transversale blanche - Nanophyes marmoratus marmoratus
+Charançon noir à corselet armé - Magdalis armigera
+Charançon palmiste - Rhynchophorus ferrugineus
+Charançon pyriforme - Notaris acridulus
+Charançon rayé du pois - Sitona lineatus
+Charançon rouge des palmiers - Rhynchophorus ferrugineus
+Charançon satin-vert - Chlorophanus viridis viridis
+Charançon sauteur brun - Orchestes alni
+Charançon tacheté des têtes de chardon - Larinus iaceae
+Charançon vert pâle - Polydrusus impressifrons
+Charançon vert soyeux - Polydrusus formosus
+Grand charançon du pin - Hylobius abietis
+Grand-charançon du Chardon - Cleonis pigra
+Petit charançon des pins - Pissodes pini
 mitoplinthus caliginosus</t>
         </is>
       </c>
